--- a/AStarExcel/Terrain1.xlsx
+++ b/AStarExcel/Terrain1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="54">
   <si>
     <t>Terraiin</t>
   </si>
@@ -79,9 +79,6 @@
     <t>col19</t>
   </si>
   <si>
-    <t>col20</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>列19</t>
-  </si>
-  <si>
-    <t>列20</t>
   </si>
   <si>
     <t>地形数据</t>
@@ -205,7 +199,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -229,14 +230,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,29 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,181 +398,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,17 +607,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +635,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -670,11 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,148 +707,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1229,7 +1216,7 @@
     <col min="2" max="2" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:22">
+    <row r="1" ht="20" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,892 +1280,850 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:21">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" ht="17" customHeight="1" spans="1:21">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:22">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1" t="s">
+    <row r="4" ht="117" customHeight="1" spans="1:21">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" ht="117" customHeight="1" spans="1:22">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" ht="50" customHeight="1" spans="1:22">
+    <row r="5" ht="50" customHeight="1" spans="1:21">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:22">
+    <row r="6" ht="50" customHeight="1" spans="1:21">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="Q6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="R6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="S6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="T6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="U6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:22">
+    <row r="7" ht="50" customHeight="1" spans="1:21">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="Q7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="R7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="S7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="T7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="U7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="1:22">
+    <row r="8" ht="50" customHeight="1" spans="1:21">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="Q8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="R8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="S8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="T8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="U8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" ht="50" customHeight="1" spans="1:22">
+    <row r="9" ht="50" customHeight="1" spans="1:21">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="Q9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="R9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="S9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="T9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="U9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" ht="50" customHeight="1" spans="1:22">
+    <row r="10" ht="50" customHeight="1" spans="1:21">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" ht="50" customHeight="1" spans="1:22">
+    <row r="11" ht="50" customHeight="1" spans="1:21">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="U11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" ht="50" customHeight="1" spans="1:22">
+    <row r="12" ht="50" customHeight="1" spans="1:21">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="U12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1" spans="1:22">
+    <row r="13" ht="50" customHeight="1" spans="1:21">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="U13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="1:22">
+    <row r="14" ht="50" customHeight="1" spans="1:21">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/AStarExcel/Terrain1.xlsx
+++ b/AStarExcel/Terrain1.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="57">
   <si>
     <t>Terraiin</t>
   </si>
   <si>
+    <t>ColCount</t>
+  </si>
+  <si>
     <t>col0</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>主键</t>
   </si>
   <si>
+    <t>总列数</t>
+  </si>
+  <si>
     <t>列0</t>
   </si>
   <si>
@@ -151,7 +157,7 @@
     <t>地形数据</t>
   </si>
   <si>
-    <t>(-1)空地
+    <t>-1空地
 0平坦路
 1泥路
 2草地
@@ -171,6 +177,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>-1_0</t>
+  </si>
+  <si>
     <t>0_5</t>
   </si>
   <si>
@@ -194,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -229,8 +238,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,51 +286,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,9 +315,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,13 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +437,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,163 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,24 +618,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,16 +667,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,25 +692,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -710,112 +719,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,35 +860,8 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,9 +869,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,10 +887,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,19 +1219,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:21">
+    <row r="1" ht="20" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,850 +1296,890 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:21">
+    <row r="2" ht="16" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:21">
+    <row r="3" ht="17" customHeight="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" ht="117" customHeight="1" spans="1:21">
+    <row r="4" ht="117" customHeight="1" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:21">
+    <row r="5" ht="50" customHeight="1" spans="1:22">
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>48</v>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:21">
+    <row r="6" ht="50" customHeight="1" spans="1:22">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>48</v>
+      <c r="H6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:21">
+    <row r="7" ht="50" customHeight="1" spans="1:22">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>48</v>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1" spans="1:21">
+    <row r="8" ht="50" customHeight="1" spans="1:22">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>48</v>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" ht="50" customHeight="1" spans="1:21">
+    <row r="9" ht="50" customHeight="1" spans="1:22">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>48</v>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" ht="50" customHeight="1" spans="1:21">
+    <row r="10" ht="50" customHeight="1" spans="1:22">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>48</v>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" ht="50" customHeight="1" spans="1:21">
+    <row r="11" ht="50" customHeight="1" spans="1:22">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>48</v>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" ht="50" customHeight="1" spans="1:21">
+    <row r="12" ht="50" customHeight="1" spans="1:22">
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>48</v>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1" spans="1:21">
+    <row r="13" ht="50" customHeight="1" spans="1:22">
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>48</v>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="1:21">
+    <row r="14" ht="50" customHeight="1" spans="1:22">
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>48</v>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
